--- a/meishu/问题讨论记录.xlsx
+++ b/meishu/问题讨论记录.xlsx
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -768,7 +768,7 @@
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
+      <c r="B26" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="2">
@@ -828,7 +828,7 @@
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
+      <c r="B32" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="2">
@@ -839,7 +839,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
+      <c r="B33" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C33" s="2">
@@ -850,7 +850,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
+      <c r="B34" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C34" s="2">
@@ -882,7 +882,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B37" t="s">
+      <c r="B37" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C37" s="2">

--- a/meishu/问题讨论记录.xlsx
+++ b/meishu/问题讨论记录.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -667,7 +667,7 @@
       <c r="A16" s="2">
         <v>12.27</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="2">
@@ -675,7 +675,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="2">
@@ -694,7 +694,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="2">
@@ -716,7 +716,7 @@
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
+      <c r="B21" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="2">
@@ -746,7 +746,7 @@
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
+      <c r="B24" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="2">
@@ -779,7 +779,7 @@
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
+      <c r="B27" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="2">
@@ -787,7 +787,7 @@
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
+      <c r="B28" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C28" s="2">
@@ -798,7 +798,7 @@
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
+      <c r="B29" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C29" s="2">
@@ -806,7 +806,7 @@
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
+      <c r="B30" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C30" s="2">
@@ -817,7 +817,7 @@
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
+      <c r="B31" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="2">
